--- a/FabLab_oil_and_gas/Equations_of_state/solution/consts.xlsx
+++ b/FabLab_oil_and_gas/Equations_of_state/solution/consts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ucheba\Poly_3_kurs\3_Kurs_MexMatMod\FabLab_oil_and_gas\Equations_of_state\solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6788C353-DFA9-4D17-926B-32E3396AADEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A1C3C-9A2A-4189-9878-251D576B987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>CH41</t>
-  </si>
-  <si>
-    <t>C2H61</t>
-  </si>
-  <si>
-    <t>C3H81</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>C4H10(н-)</t>
   </si>
@@ -61,6 +52,27 @@
   </si>
   <si>
     <t>H2S</t>
+  </si>
+  <si>
+    <t>P_c</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>T_c</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>C2H6</t>
+  </si>
+  <si>
+    <t>C3H8</t>
   </si>
 </sst>
 </file>
@@ -409,112 +421,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>190.56</v>
+      </c>
+      <c r="C2">
+        <v>4.5991999999999997</v>
+      </c>
+      <c r="D2">
+        <v>1.142E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>305.32</v>
+      </c>
+      <c r="C3">
+        <v>4.8722000000000003</v>
+      </c>
+      <c r="D3">
+        <v>9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>369.89</v>
+      </c>
+      <c r="C4">
+        <v>4.2511999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.15210000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>190.56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>425.13</v>
+      </c>
+      <c r="C5">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>305.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>407.81</v>
+      </c>
+      <c r="C6">
+        <v>3.629</v>
+      </c>
+      <c r="D6">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>369.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>469.6</v>
+      </c>
+      <c r="C7">
+        <v>3.37</v>
+      </c>
+      <c r="D7">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>425.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>507.82</v>
+      </c>
+      <c r="C8">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>407.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>540.13</v>
+      </c>
+      <c r="C9">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>469.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>617.70000000000005</v>
+      </c>
+      <c r="C10">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.4884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>507.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>126.19</v>
+      </c>
+      <c r="C11">
+        <v>3.3957999999999999</v>
+      </c>
+      <c r="D11">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>540.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B12">
+        <v>304.13</v>
+      </c>
+      <c r="C12">
+        <v>7.3773</v>
+      </c>
+      <c r="D12">
+        <v>0.22394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>617.70000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B13">
+        <v>373.1</v>
+      </c>
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>126.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>304.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>373.1</v>
+      <c r="D13">
+        <v>0.10050000000000001</v>
       </c>
     </row>
   </sheetData>
